--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.07664366666667</v>
+        <v>9.483255666666667</v>
       </c>
       <c r="H2">
-        <v>33.229931</v>
+        <v>28.449767</v>
       </c>
       <c r="I2">
-        <v>0.06424093823669472</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="J2">
-        <v>0.06424093823669472</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N2">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O2">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P2">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q2">
-        <v>71.89348370518145</v>
+        <v>127.9347267085176</v>
       </c>
       <c r="R2">
-        <v>647.0413533466331</v>
+        <v>1151.412540376658</v>
       </c>
       <c r="S2">
-        <v>0.05153193966114466</v>
+        <v>0.03971166171519278</v>
       </c>
       <c r="T2">
-        <v>0.05153193966114465</v>
+        <v>0.03971166171519278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.07664366666667</v>
+        <v>9.483255666666667</v>
       </c>
       <c r="H3">
-        <v>33.229931</v>
+        <v>28.449767</v>
       </c>
       <c r="I3">
-        <v>0.06424093823669472</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="J3">
-        <v>0.06424093823669472</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,30 +620,30 @@
         <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q3">
-        <v>17.73063828003766</v>
+        <v>15.18006546051367</v>
       </c>
       <c r="R3">
-        <v>159.575744520339</v>
+        <v>136.620589144623</v>
       </c>
       <c r="S3">
-        <v>0.01270899857555006</v>
+        <v>0.004711978052338047</v>
       </c>
       <c r="T3">
-        <v>0.01270899857555006</v>
+        <v>0.004711978052338047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>115.4636816666667</v>
+        <v>9.483255666666667</v>
       </c>
       <c r="H4">
-        <v>346.391045</v>
+        <v>28.449767</v>
       </c>
       <c r="I4">
-        <v>0.6696518788314408</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="J4">
-        <v>0.6696518788314408</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N4">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O4">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P4">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q4">
-        <v>749.4225296263262</v>
+        <v>0.2659357775751111</v>
       </c>
       <c r="R4">
-        <v>6744.802766636935</v>
+        <v>2.393421998176</v>
       </c>
       <c r="S4">
-        <v>0.5371724193499181</v>
+        <v>8.254796730125389E-05</v>
       </c>
       <c r="T4">
-        <v>0.5371724193499181</v>
+        <v>8.25479673012539E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>115.4636816666667</v>
+        <v>9.483255666666667</v>
       </c>
       <c r="H5">
-        <v>346.391045</v>
+        <v>28.449767</v>
       </c>
       <c r="I5">
-        <v>0.6696518788314408</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="J5">
-        <v>0.6696518788314408</v>
+        <v>0.04455526240719568</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.600723</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N5">
-        <v>4.802168999999999</v>
+        <v>0.050014</v>
       </c>
       <c r="O5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="P5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="Q5">
-        <v>184.8253709085116</v>
+        <v>0.1580985163042222</v>
       </c>
       <c r="R5">
-        <v>1663.428338176605</v>
+        <v>1.422886646738</v>
       </c>
       <c r="S5">
-        <v>0.1324794594815228</v>
+        <v>4.907467236359966E-05</v>
       </c>
       <c r="T5">
-        <v>0.1324794594815228</v>
+        <v>4.907467236359968E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.055359000000001</v>
+        <v>115.4636816666667</v>
       </c>
       <c r="H6">
-        <v>24.166077</v>
+        <v>346.391045</v>
       </c>
       <c r="I6">
-        <v>0.04671846775668023</v>
+        <v>0.5424840177242128</v>
       </c>
       <c r="J6">
-        <v>0.04671846775668023</v>
+        <v>0.5424840177242128</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N6">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O6">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P6">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q6">
-        <v>52.28369156161234</v>
+        <v>1557.673343207092</v>
       </c>
       <c r="R6">
-        <v>470.553224054511</v>
+        <v>14019.06008886383</v>
       </c>
       <c r="S6">
-        <v>0.03747599782288371</v>
+        <v>0.4835106030995656</v>
       </c>
       <c r="T6">
-        <v>0.0374759978228837</v>
+        <v>0.4835106030995656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.055359000000001</v>
+        <v>115.4636816666667</v>
       </c>
       <c r="H7">
-        <v>24.166077</v>
+        <v>346.391045</v>
       </c>
       <c r="I7">
-        <v>0.04671846775668023</v>
+        <v>0.5424840177242128</v>
       </c>
       <c r="J7">
-        <v>0.04671846775668023</v>
+        <v>0.5424840177242128</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,30 +868,30 @@
         <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q7">
-        <v>12.894398424557</v>
+        <v>184.8253709085117</v>
       </c>
       <c r="R7">
-        <v>116.049585821013</v>
+        <v>1663.428338176605</v>
       </c>
       <c r="S7">
-        <v>0.009242469933796526</v>
+        <v>0.05737083897968095</v>
       </c>
       <c r="T7">
-        <v>0.009242469933796526</v>
+        <v>0.05737083897968095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.82775733333333</v>
+        <v>115.4636816666667</v>
       </c>
       <c r="H8">
-        <v>113.483272</v>
+        <v>346.391045</v>
       </c>
       <c r="I8">
-        <v>0.2193887151751843</v>
+        <v>0.5424840177242128</v>
       </c>
       <c r="J8">
-        <v>0.2193887151751843</v>
+        <v>0.5424840177242128</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N8">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O8">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P8">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q8">
-        <v>245.5228620950996</v>
+        <v>3.237909537084444</v>
       </c>
       <c r="R8">
-        <v>2209.705758855896</v>
+        <v>29.14118583375999</v>
       </c>
       <c r="S8">
-        <v>0.1759863156277173</v>
+        <v>0.001005065407252972</v>
       </c>
       <c r="T8">
-        <v>0.1759863156277172</v>
+        <v>0.001005065407252972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>115.4636816666667</v>
+      </c>
+      <c r="H9">
+        <v>346.391045</v>
+      </c>
+      <c r="I9">
+        <v>0.5424840177242128</v>
+      </c>
+      <c r="J9">
+        <v>0.5424840177242128</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q9">
+        <v>1.924933524958889</v>
+      </c>
+      <c r="R9">
+        <v>17.32440172463</v>
+      </c>
+      <c r="S9">
+        <v>0.0005975102377133671</v>
+      </c>
+      <c r="T9">
+        <v>0.0005975102377133672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.076009</v>
+      </c>
+      <c r="H10">
+        <v>36.228027</v>
+      </c>
+      <c r="I10">
+        <v>0.05673681789660949</v>
+      </c>
+      <c r="J10">
+        <v>0.05673681789660948</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N10">
+        <v>40.471774</v>
+      </c>
+      <c r="O10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q10">
+        <v>162.9125023566553</v>
+      </c>
+      <c r="R10">
+        <v>1466.212521209898</v>
+      </c>
+      <c r="S10">
+        <v>0.05056896082252169</v>
+      </c>
+      <c r="T10">
+        <v>0.05056896082252169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>37.82775733333333</v>
-      </c>
-      <c r="H9">
-        <v>113.483272</v>
-      </c>
-      <c r="I9">
-        <v>0.2193887151751843</v>
-      </c>
-      <c r="J9">
-        <v>0.2193887151751843</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.076009</v>
+      </c>
+      <c r="H11">
+        <v>36.228027</v>
+      </c>
+      <c r="I11">
+        <v>0.05673681789660949</v>
+      </c>
+      <c r="J11">
+        <v>0.05673681789660948</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>1.600723</v>
       </c>
-      <c r="N9">
-        <v>4.802168999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="P9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="Q9">
-        <v>60.55176120188532</v>
-      </c>
-      <c r="R9">
-        <v>544.9658508169679</v>
-      </c>
-      <c r="S9">
-        <v>0.04340239954746701</v>
-      </c>
-      <c r="T9">
-        <v>0.04340239954746701</v>
+      <c r="N11">
+        <v>4.802169</v>
+      </c>
+      <c r="O11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q11">
+        <v>19.330345354507</v>
+      </c>
+      <c r="R11">
+        <v>173.973108190563</v>
+      </c>
+      <c r="S11">
+        <v>0.006000248371226034</v>
+      </c>
+      <c r="T11">
+        <v>0.006000248371226034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.076009</v>
+      </c>
+      <c r="H12">
+        <v>36.228027</v>
+      </c>
+      <c r="I12">
+        <v>0.05673681789660949</v>
+      </c>
+      <c r="J12">
+        <v>0.05673681789660948</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q12">
+        <v>0.3386434950506666</v>
+      </c>
+      <c r="R12">
+        <v>3.047791455456</v>
+      </c>
+      <c r="S12">
+        <v>0.0001051168534415394</v>
+      </c>
+      <c r="T12">
+        <v>0.0001051168534415394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.076009</v>
+      </c>
+      <c r="H13">
+        <v>36.228027</v>
+      </c>
+      <c r="I13">
+        <v>0.05673681789660949</v>
+      </c>
+      <c r="J13">
+        <v>0.05673681789660948</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.050014</v>
+      </c>
+      <c r="O13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q13">
+        <v>0.2013231713753333</v>
+      </c>
+      <c r="R13">
+        <v>1.811908542378</v>
+      </c>
+      <c r="S13">
+        <v>6.249184942023049E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.249184942023049E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>75.81960366666667</v>
+      </c>
+      <c r="H14">
+        <v>227.458811</v>
+      </c>
+      <c r="I14">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="J14">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.471774</v>
+      </c>
+      <c r="O14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q14">
+        <v>1022.851288122302</v>
+      </c>
+      <c r="R14">
+        <v>9205.661593100715</v>
+      </c>
+      <c r="S14">
+        <v>0.3174988166536468</v>
+      </c>
+      <c r="T14">
+        <v>0.3174988166536468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>75.81960366666667</v>
+      </c>
+      <c r="H15">
+        <v>227.458811</v>
+      </c>
+      <c r="I15">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="J15">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.600723</v>
+      </c>
+      <c r="N15">
+        <v>4.802169</v>
+      </c>
+      <c r="O15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q15">
+        <v>121.3661834401177</v>
+      </c>
+      <c r="R15">
+        <v>1092.295650961059</v>
+      </c>
+      <c r="S15">
+        <v>0.03767274878711337</v>
+      </c>
+      <c r="T15">
+        <v>0.03767274878711337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>75.81960366666667</v>
+      </c>
+      <c r="H16">
+        <v>227.458811</v>
+      </c>
+      <c r="I16">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="J16">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q16">
+        <v>2.126183872423111</v>
+      </c>
+      <c r="R16">
+        <v>19.135654851808</v>
+      </c>
+      <c r="S16">
+        <v>0.0006599794821802965</v>
+      </c>
+      <c r="T16">
+        <v>0.0006599794821802967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>75.81960366666667</v>
+      </c>
+      <c r="H17">
+        <v>227.458811</v>
+      </c>
+      <c r="I17">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="J17">
+        <v>0.3562239019719819</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.050014</v>
+      </c>
+      <c r="O17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q17">
+        <v>1.264013885928222</v>
+      </c>
+      <c r="R17">
+        <v>11.376124973354</v>
+      </c>
+      <c r="S17">
+        <v>0.0003923570490415243</v>
+      </c>
+      <c r="T17">
+        <v>0.0003923570490415244</v>
       </c>
     </row>
   </sheetData>
